--- a/biology/Écologie/Forêts_des_basses_terres_de_Madagascar/Forêts_des_basses_terres_de_Madagascar.xlsx
+++ b/biology/Écologie/Forêts_des_basses_terres_de_Madagascar/Forêts_des_basses_terres_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_basses_terres_de_Madagascar</t>
+          <t>Forêts_des_basses_terres_de_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts de basses terres de Madagascar sont une écorégion de forêt tropicale humide située sur la côte orientale de l'île de Madagascar.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_basses_terres_de_Madagascar</t>
+          <t>Forêts_des_basses_terres_de_Madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Cadre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorégion constitue une étroite bande de forêts entre la côte est de Madagascar et les hauts plateaux du centre de l'île, du niveau de la mer à 800 mètres d'altitude. Elle couvre une superficie d'environ 112 600 kilomètres carrés. L'écorégion est sous l'influence directe des vents humides du sud-est, qui maintiennent un climat chaud et humide.
 Ces forêts s'étendent de Marojejy dans le nord jusqu'à l'angle sud-est de l'île. À l'extrémité nord de l'écorégion, autour de Vohémar, la transition des forêts humides se fait vers les forêts sèches à feuilles caduques. À l'Est, à environ 800 mètres d'altitude, la transition se fait progressivement les forêts sub-humides de Madagascar. L'extrémité sud de l'écorégion se trouve au sommet des montagnes Anosyennes, où une bande étroite de forêt de transition marque le passage vers les fourrés épineux de Madagascar des régions privées de pluie par les montagnes.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_basses_terres_de_Madagascar</t>
+          <t>Forêts_des_basses_terres_de_Madagascar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts de plaine sont caractérisées par des forêts denses à feuillage persistant, avec une canopée à plus de 30 mètres. Les genres typiques sont Dalbergia, Diospyros, Ocotea, Symphonia et Tambourissa. Au-dessus émergent Canarium, Albizia et Brochoneura acuminata. Les forêts de plaine ont une riche diversité de Pandanus, de bambous, et d'espèces d'orchidées épiphytes.
 Les forêts pluviales malgaches sont en général mieux conservées que sur les hauts plateaux centraux, probablement en raison de la densité moindre de population due à la plus grande distance à la capitale par l'autoroute côtier. Il y avait une activité de brûlis dans les forêts tropicales de plaine, réduisant l'habitat forestier et appliquant une pression sur certaines espèces qui sont en voie de disparition. Le brûlis est une méthode parfois utilisée par les cultivateurs itinérants pour améliorer à court terme les rendements de ces terres. 
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_basses_terres_de_Madagascar</t>
+          <t>Forêts_des_basses_terres_de_Madagascar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts de plaine constituent un grand réservoir de diversité et d'endémisme. presque tous les genres de mammifères endémiques de Madagascar y sont représentés, dont les cinq familles de lémuriens. Quinze espèces et sous-espèces de lémuriens sont endémiques et quasi-endémiques à cette écorégion, comme l'Aye-aye (Daubentonia madagascariensis), le Chirogale à oreilles velues (Allocebus trichotis), deux espèces de lémuriens à crinière (Varecia variegata, V. rubra), l'Indri (Indri indri), l'Avahi laineux (Avahi laniger), le Propithèque à diadème (Propithecus diadema), le Propithèque de Milne-Edwards (P. edwardsi), l'Hapalémur doré (Hapalemur aureus), le Grand Hapalémur (Prolemur simus), le Lémur à tête grise (Eulemur cinereiceps), le Lémur brun à collier (E. collaris), et le Lémur à ventre roux (E. rubriventer).
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAts_des_basses_terres_de_Madagascar</t>
+          <t>Forêts_des_basses_terres_de_Madagascar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Les aires protégées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On estime que seulement un tiers des forêts de plaine d'origine restent intactes. Sept pour cent de ces forêts restantes sont protégées dans des parcs nationaux et de réserves, comme le parc de Masoala, la Réserve de biosphère de Mananara (y compris le parc national de Verezanantsoro), la Réserve spéciale d'Ambatovaky et la Réserve naturelle intégrale et le parc national de Zahamena.
 </t>
